--- a/Document/问题列表.xlsx
+++ b/Document/问题列表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>测试到的问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,10 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7、 AI会刷新在建筑物上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>已经解决为1，未解决为0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -67,6 +63,14 @@
   </si>
   <si>
     <t>7图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8、 玩家在冲锋时，侧面撞到了可击杀角色，但是没有形成击杀，也没有停止。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7、 AI会刷新在建筑物上（之后难以复现）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -74,7 +78,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,6 +89,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -113,8 +125,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -479,7 +494,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -488,15 +503,15 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" t="s">
-        <v>7</v>
+      <c r="I1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>0</v>
       </c>
     </row>
@@ -504,7 +519,7 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>0</v>
       </c>
     </row>
@@ -512,26 +527,26 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
         <v>8</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="J5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>0</v>
       </c>
     </row>
@@ -539,21 +554,29 @@
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="J16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Document/问题列表.xlsx
+++ b/Document/问题列表.xlsx
@@ -225,6 +225,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>395909</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>456869</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9311309" y="2581275"/>
+          <a:ext cx="2118360" cy="2628900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -494,7 +532,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Document/问题列表.xlsx
+++ b/Document/问题列表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>测试到的问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,6 +71,26 @@
   </si>
   <si>
     <t>7、 AI会刷新在建筑物上（之后难以复现）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9、 游戏会突然跳帧，然后人物出现在围墙边上（很难复现）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10、 10图中的障碍物可以从边缘走上去（这个可能可以由策划改）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11、 人物死亡似乎是被克制职业在最大距离冲锋到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -263,6 +283,82 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>599655</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>66375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6838950" y="5381625"/>
+          <a:ext cx="3361905" cy="2400000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>615848</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>227876</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6788048" y="8162925"/>
+          <a:ext cx="3726828" cy="1943100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -529,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -612,9 +708,40 @@
         <v>0</v>
       </c>
     </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="J16" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J49" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Document/问题列表.xlsx
+++ b/Document/问题列表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>测试到的问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,6 +91,14 @@
   </si>
   <si>
     <t>11图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12、 玩家与可击杀玩家的AI碰撞时，AI不换方向，玩家无法移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>之后没有复现</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -628,7 +636,7 @@
   <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -653,6 +661,9 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
       <c r="I3">
         <v>0</v>
       </c>
@@ -721,12 +732,23 @@
         <v>13</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>15</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">

--- a/Document/问题列表.xlsx
+++ b/Document/问题列表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>测试到的问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,31 +74,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>10、 10图中的障碍物可以从边缘走上去（这个可能可以由策划改）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11、 人物死亡似乎是被克制职业在最大距离冲锋到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12、 玩家与可击杀玩家的AI碰撞时，AI不换方向，玩家无法移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>之后没有复现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13、 玩家击杀AI后，AI会有一定时间消失，消失时仍然可以碰撞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14、 有AI一直在墙边来回移动（与墙垂直）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15、 冲刺撞墙后，直接反方向移动，人物没有及时转向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>9、 游戏会突然跳帧，然后人物出现在围墙边上（很难复现）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10、 10图中的障碍物可以从边缘走上去（这个可能可以由策划改）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11、 人物死亡似乎是被克制职业在最大距离冲锋到</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12、 玩家与可击杀玩家的AI碰撞时，AI不换方向，玩家无法移动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>之后没有复现</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -636,7 +648,7 @@
   <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -662,7 +674,7 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -721,7 +733,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -729,7 +741,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -737,7 +749,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -745,25 +757,47 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
     </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
       <c r="J16" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="32" spans="10:10" x14ac:dyDescent="0.15">
       <c r="J32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="10:10" x14ac:dyDescent="0.15">
       <c r="J49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Document/问题列表.xlsx
+++ b/Document/问题列表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>测试到的问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,10 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已经解决为1，未解决为0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4、 点击复活时的按钮有时没有反应</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -70,26 +66,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7、 AI会刷新在建筑物上（之后难以复现）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10、 10图中的障碍物可以从边缘走上去（这个可能可以由策划改）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>11、 人物死亡似乎是被克制职业在最大距离冲锋到</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>11图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>12、 玩家与可击杀玩家的AI碰撞时，AI不换方向，玩家无法移动</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -111,6 +95,34 @@
   </si>
   <si>
     <t>9、 游戏会突然跳帧，然后人物出现在围墙边上（很难复现）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经解决为1，未解决为0，不确定为2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7、 角色会刷新在建筑物上（之后难以复现）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17、 复活界面没有下次立即复活的勾选框（去掉返回按钮）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16、 玩家复活地点没有随机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18、 同职业，玩家冲刺到AI，AI不会弹开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19、 复活后点击返回，再次进入游戏总有AI不动</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -193,13 +205,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>85726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>180638</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>103886</xdr:rowOff>
@@ -231,13 +243,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>343535</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -267,13 +279,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>395909</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>456869</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
@@ -305,20 +317,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>599655</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>247273</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>66375</xdr:rowOff>
+      <xdr:rowOff>171193</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPr id="7" name="图片 6"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -331,46 +343,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6838950" y="5381625"/>
-          <a:ext cx="3361905" cy="2400000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>615848</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>227876</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6788048" y="8162925"/>
-          <a:ext cx="3726828" cy="1943100"/>
+          <a:off x="7515225" y="5829300"/>
+          <a:ext cx="3019048" cy="2057143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -645,159 +619,186 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="I1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="I4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
         <v>7</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="I6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="I7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
+      <c r="I13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
+      <c r="I14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
         <v>16</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>20</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
-      <c r="J16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="10:10" x14ac:dyDescent="0.15">
-      <c r="J32" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="10:10" x14ac:dyDescent="0.15">
-      <c r="J49" t="s">
-        <v>15</v>
+      <c r="K16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K35" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Document/问题列表.xlsx
+++ b/Document/问题列表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>测试到的问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,10 +86,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>14、 有AI一直在墙边来回移动（与墙垂直）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>15、 冲刺撞墙后，直接反方向移动，人物没有及时转向</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -123,6 +119,14 @@
   </si>
   <si>
     <t>19、 复活后点击返回，再次进入游戏总有AI不动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20、 冲刺之后，体力值立刻全满(可能是因为变了职业）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14、 有AI一直在墙边来回移动，新版本仍然存在</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -622,7 +626,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -632,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="I1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
@@ -691,7 +695,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -707,7 +711,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I10">
         <v>2</v>
@@ -747,15 +751,15 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -766,7 +770,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -774,7 +778,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -782,7 +786,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -790,15 +794,23 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
         <v>24</v>
       </c>
-      <c r="I20">
+      <c r="I21">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Document/问题列表.xlsx
+++ b/Document/问题列表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>测试到的问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,6 +127,14 @@
   </si>
   <si>
     <t>14、 有AI一直在墙边来回移动，新版本仍然存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21、 会有主角处于不能被杀但能杀人的状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22、 名字输入框除了第一个字母外不能大写</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -626,7 +634,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -808,6 +816,22 @@
         <v>0</v>
       </c>
     </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
     <row r="35" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K35" t="s">
         <v>22</v>

--- a/Document/问题列表.xlsx
+++ b/Document/问题列表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>测试到的问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,10 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>7图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -86,10 +82,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>15、 冲刺撞墙后，直接反方向移动，人物没有及时转向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>9、 游戏会突然跳帧，然后人物出现在围墙边上（很难复现）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -110,10 +102,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>18、 同职业，玩家冲刺到AI，AI不会弹开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>19图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -135,6 +123,26 @@
   </si>
   <si>
     <t>22、 名字输入框除了第一个字母外不能大写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15、 冲刺碰撞后，被碰撞的目标会弹开，撞墙就维持目前的弹开状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18、 同职业，玩家冲刺到AI，AI不会弹开，需求见15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23、 如图，此时玩家不能移动（玩家是在外侧的那个）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -189,11 +197,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -219,13 +230,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>85726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>180638</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>103886</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -243,44 +254,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6896100" y="2657476"/>
+          <a:off x="7581900" y="2657476"/>
           <a:ext cx="2199938" cy="2075560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>343535</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7000875" y="819150"/>
-          <a:ext cx="2258060" cy="1419225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -293,13 +268,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>395909</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>456869</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -310,7 +285,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -329,20 +304,58 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>247273</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>171193</xdr:rowOff>
+      <xdr:colOff>447298</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>47368</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7715250" y="4333875"/>
+          <a:ext cx="3019048" cy="2057143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>225311</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -355,8 +368,46 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7515225" y="5829300"/>
-          <a:ext cx="3019048" cy="2057143"/>
+          <a:off x="7686674" y="3495674"/>
+          <a:ext cx="5568837" cy="514351"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>8612</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>51660</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7696200" y="6772275"/>
+          <a:ext cx="5342612" cy="3566385"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -631,10 +682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -644,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="I1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
@@ -660,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -703,7 +754,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -711,15 +762,15 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I10">
         <v>2</v>
@@ -727,7 +778,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -735,7 +786,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -743,7 +794,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -751,7 +802,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -759,7 +810,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -767,75 +818,106 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
-      <c r="K16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="K21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="11:11" x14ac:dyDescent="0.15">
-      <c r="K35" t="s">
-        <v>22</v>
-      </c>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="K40" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Document/问题列表.xlsx
+++ b/Document/问题列表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>测试到的问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,10 +102,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>19图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>19、 复活后点击返回，再次进入游戏总有AI不动</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -118,10 +114,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>21、 会有主角处于不能被杀但能杀人的状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>22、 名字输入框除了第一个字母外不能大写</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -134,15 +126,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>18、 同职业，玩家冲刺到AI，AI不会弹开，需求见15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>23图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>23、 如图，此时玩家不能移动（玩家是在外侧的那个）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18、 同职业，玩家冲刺到AI，AI不会弹开，反而会停顿一会，需求见15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24、 有掉落的能量点不能拾取，如图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21、 会有主角处于不能被杀但能杀人的状态，如图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25、 玩家等级不能提升，如图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -305,44 +321,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>447298</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>47368</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="图片 6"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7715250" y="4333875"/>
-          <a:ext cx="3019048" cy="2057143"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
       <xdr:colOff>142874</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>66674</xdr:rowOff>
@@ -361,7 +339,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -381,19 +359,57 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>8612</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>51660</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>684887</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>165960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7686675" y="6715125"/>
+          <a:ext cx="5342612" cy="3566385"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>647404</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>161699</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -406,8 +422,160 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7696200" y="6772275"/>
-          <a:ext cx="5342612" cy="3566385"/>
+          <a:off x="7877175" y="4352925"/>
+          <a:ext cx="2371429" cy="1809524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>18929</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>152231</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7962900" y="10801350"/>
+          <a:ext cx="971429" cy="1352381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247258</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>155767</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10448925" y="4333875"/>
+          <a:ext cx="2828533" cy="1822642"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>142668</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>104606</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13573125" y="4410075"/>
+          <a:ext cx="1657143" cy="1352381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>447252</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>114238</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8039100" y="12649200"/>
+          <a:ext cx="3380952" cy="495238"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -682,10 +850,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K42"/>
+  <dimension ref="A1:K74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -810,7 +978,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -818,7 +986,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -850,7 +1018,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -858,18 +1026,18 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -877,7 +1045,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -885,15 +1053,29 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
     </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+    </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
       <c r="K26" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.15">
@@ -908,7 +1090,7 @@
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="K40" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.15">
@@ -918,6 +1100,16 @@
     <row r="42" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
+    </row>
+    <row r="64" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K64" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="74" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K74" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Document/问题列表.xlsx
+++ b/Document/问题列表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>测试到的问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -138,10 +138,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>21图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>24图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -154,11 +150,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>25图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25、 玩家等级不能提升，如图</t>
+    <t>25、 玩家等级提升后，更换模型没有继承等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26、 玩家复活后，会和现有的AI重叠，模型会互相穿过。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27、 在死亡后，按着加速键，体力消耗完，复活时体力不会增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28、 AI之间有时明明很近，却没有发生追杀的情况，如图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -360,13 +372,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>684887</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>165960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -397,52 +409,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>647404</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>161699</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7877175" y="4352925"/>
-          <a:ext cx="2371429" cy="1809524"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>18929</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>152231</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -453,7 +427,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -472,20 +446,58 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>247258</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>155767</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>18759</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>75831</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7981950" y="13068300"/>
+          <a:ext cx="2323809" cy="2952381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>399667</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>28365</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -498,84 +510,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10448925" y="4333875"/>
-          <a:ext cx="2828533" cy="1822642"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>142668</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>104606</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="图片 9"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13573125" y="4410075"/>
-          <a:ext cx="1657143" cy="1352381"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>447252</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>114238</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="图片 10"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8039100" y="12649200"/>
-          <a:ext cx="3380952" cy="495238"/>
+          <a:off x="7620000" y="16354425"/>
+          <a:ext cx="3066667" cy="1676190"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -850,10 +786,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K74"/>
+  <dimension ref="A1:K85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1037,10 +973,10 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
@@ -1061,7 +997,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1069,46 +1005,72 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
         <v>33</v>
       </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="K26" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="I28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="K29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
-      <c r="K40" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
     </row>
-    <row r="64" spans="11:11" x14ac:dyDescent="0.15">
-      <c r="K64" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="74" spans="11:11" x14ac:dyDescent="0.15">
-      <c r="K74" t="s">
-        <v>32</v>
+    <row r="53" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K53" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="66" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K66" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="85" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K85" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Document/问题列表.xlsx
+++ b/Document/问题列表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>测试到的问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -142,10 +142,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>24、 有掉落的能量点不能拾取，如图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>21、 会有主角处于不能被杀但能杀人的状态，如图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -170,7 +166,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>28、 AI之间有时明明很近，却没有发生追杀的情况，如图</t>
+    <t>29、 角色模型变大，可以爬上障碍物，如图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24、 有掉落的能量点不能拾取，如图（只在返回后进入游戏出现）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28、 AI之间有时明明很近，却没有发生追杀的情况(再次确认了下，未解决）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30、 按冲刺同时疯狂按方向键，会导致冲刺停止，且不会变模型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -203,12 +211,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -225,7 +239,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -233,6 +247,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -520,6 +537,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>418790</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>170979</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7543800" y="16973550"/>
+          <a:ext cx="2476190" cy="3771429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -788,8 +843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -877,7 +932,7 @@
         <v>14</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
@@ -965,7 +1020,7 @@
         <v>20</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" t="s">
         <v>23</v>
@@ -973,7 +1028,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -984,7 +1039,7 @@
         <v>22</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
@@ -992,12 +1047,12 @@
         <v>26</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1005,7 +1060,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -1013,29 +1068,52 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
-        <v>36</v>
-      </c>
-      <c r="I29">
+      <c r="A29" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3">
         <v>0</v>
       </c>
       <c r="K29" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.15">
@@ -1065,12 +1143,12 @@
     </row>
     <row r="66" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K66" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="85" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K85" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Document/问题列表.xlsx
+++ b/Document/问题列表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>测试到的问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -179,6 +179,26 @@
   </si>
   <si>
     <t>30、 按冲刺同时疯狂按方向键，会导致冲刺停止，且不会变模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31、 两个同职业发生碰撞时，被克制的角色撞到其中之一有时不会死亡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32、 角色模型变大后，有时角色会与克制自己的角色模型重叠，且不死亡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33、 有些角色复活后名字未出现，如图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34、 角色碰撞后弹开的方向并非都是主角朝向的方向</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -211,18 +231,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -249,7 +263,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -540,19 +554,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>99</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>418790</xdr:colOff>
-      <xdr:row>120</xdr:row>
-      <xdr:rowOff>170979</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>85092</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>115979</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPr id="9" name="图片 8"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -565,8 +579,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7543800" y="16973550"/>
-          <a:ext cx="2476190" cy="3771429"/>
+          <a:off x="7610475" y="17011651"/>
+          <a:ext cx="4819017" cy="3849778"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -841,10 +855,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K85"/>
+  <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -980,7 +994,7 @@
         <v>24</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
@@ -1004,7 +1018,7 @@
         <v>27</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
@@ -1063,7 +1077,7 @@
         <v>30</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.15">
@@ -1094,7 +1108,7 @@
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" t="s">
         <v>25</v>
@@ -1113,26 +1127,58 @@
         <v>38</v>
       </c>
       <c r="I31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="I32">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>41</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
     </row>
@@ -1149,6 +1195,11 @@
     <row r="85" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K85" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="100" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K100" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Document/问题列表.xlsx
+++ b/Document/问题列表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>测试到的问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -199,6 +199,10 @@
   </si>
   <si>
     <t>34、 角色碰撞后弹开的方向并非都是主角朝向的方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35、 死亡掉落的能量点堆在一起，改表无用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -858,7 +862,7 @@
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1159,6 +1163,14 @@
         <v>43</v>
       </c>
       <c r="I35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="I36">
         <v>0</v>
       </c>
     </row>

--- a/Document/问题列表.xlsx
+++ b/Document/问题列表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>测试到的问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -203,6 +203,14 @@
   </si>
   <si>
     <t>35、 死亡掉落的能量点堆在一起，改表无用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36、 手机测试时安装完第一次一直卡在输名字界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37、 AI会突然旋转，很难复现，</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -593,6 +601,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>599743</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>142621</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7543800" y="21774150"/>
+          <a:ext cx="2657143" cy="2028571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -862,7 +908,7 @@
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1174,9 +1220,23 @@
         <v>0</v>
       </c>
     </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
+      <c r="I38">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="2"/>

--- a/Document/问题列表.xlsx
+++ b/Document/问题列表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>测试到的问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -158,14 +158,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>27图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>28图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>29、 角色模型变大，可以爬上障碍物，如图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -210,7 +202,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>37、 AI会突然旋转，很难复现，</t>
+    <t>38、 角色可以爬到另一个角色身上，如图。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>38图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37、 AI会突然旋转，很难复现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39、 排行榜上死亡角色的积分没有第一时间改变，而是复活后才出现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -490,90 +498,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>18759</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>75831</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="图片 6"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7981950" y="13068300"/>
-          <a:ext cx="2323809" cy="2952381"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>399667</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>28365</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="图片 11"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7620000" y="16354425"/>
-          <a:ext cx="3066667" cy="1676190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>85092</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>115979</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -584,7 +516,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -604,19 +536,95 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>599743</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228268</xdr:colOff>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>142621</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7858125" y="15430500"/>
+          <a:ext cx="2657143" cy="2028571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>189977</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>28168</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7667625" y="24203025"/>
+          <a:ext cx="4180952" cy="3257143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>75900</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>28192</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -629,8 +637,46 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7543800" y="21774150"/>
-          <a:ext cx="2657143" cy="2028571"/>
+          <a:off x="12077700" y="24393525"/>
+          <a:ext cx="2400000" cy="3066667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>428280</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>9145</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14811375" y="18059400"/>
+          <a:ext cx="2761905" cy="3038095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -905,10 +951,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K100"/>
+  <dimension ref="A1:K105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1116,7 +1162,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1148,7 +1194,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1166,7 +1212,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -1174,7 +1220,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -1182,7 +1228,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -1190,7 +1236,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -1198,7 +1244,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -1206,7 +1252,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I35">
         <v>1</v>
@@ -1214,7 +1260,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -1222,10 +1268,10 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
@@ -1239,12 +1285,24 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>44</v>
+      </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
+      <c r="I39">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>47</v>
+      </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
+      <c r="I40">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B41" s="2"/>
@@ -1259,19 +1317,19 @@
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="11:11" x14ac:dyDescent="0.15">
-      <c r="K66" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="85" spans="11:11" x14ac:dyDescent="0.15">
-      <c r="K85" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="100" spans="11:11" x14ac:dyDescent="0.15">
-      <c r="K100" t="s">
-        <v>42</v>
+    <row r="63" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K63" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="91" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K91" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="105" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K105" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
